--- a/Electronics/LogicAnalyzer/LogicAnalyzerV2/designs/jitx-design/bom/jitx-design.xlsx
+++ b/Electronics/LogicAnalyzer/LogicAnalyzerV2/designs/jitx-design/bom/jitx-design.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Comment</t>
   </si>
@@ -25,6 +25,15 @@
     <t>LCSC Part Number</t>
   </si>
   <si>
+    <t>2.54mm Plugin 3A 3P -40℃~+105℃ Shrouded 1x3P side 8.5mm Square Holes Push-Pull,P=2.54mm  Female Headers ROHS</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>PM254-1-03-W-8.5</t>
+  </si>
+  <si>
     <t>75V 500mW 1V@10mA 4ns 200mA LL-34  Switching Diode ROHS</t>
   </si>
   <si>
@@ -34,13 +43,22 @@
     <t>LL4148</t>
   </si>
   <si>
-    <t>2.54mm Plugin 3A 3P -40℃~+105℃ Shrouded 1x3P side 8.5mm Square Holes Push-Pull,P=2.54mm  Female Headers ROHS</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>PM254-1-03-W-8.5</t>
+    <t>-  Raspberry Pi ROHS</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>PICO</t>
+  </si>
+  <si>
+    <t>Lying 1A 单刀三掷 24V Black 10000次 Plugin  Slide Switches ROHS</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>SK-13D01-G030</t>
   </si>
   <si>
     <t>3A Shrouded Square Pins 2.54mm 3P 6mm 2.54mm Plugin 1x3P Push-Pull,P=2.54mm  Pin Headers ROHS</t>
@@ -52,52 +70,37 @@
     <t>DZ254W-11-03-65</t>
   </si>
   <si>
-    <t>-  Raspberry Pi ROHS</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>PICO</t>
-  </si>
-  <si>
-    <t>Lying 1A 单刀三掷 24V Black 10000次 Plugin  Slide Switches ROHS</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>SK-13D01-G030</t>
+    <t>1.08V~5.5V 4 200Mbps 1.08V~5.5V TSSOP-14  Translators / Level Shifters ROHS</t>
+  </si>
+  <si>
+    <t>U2 U5 U4 U3 U6 U1</t>
+  </si>
+  <si>
+    <t>TXU0104PWR</t>
+  </si>
+  <si>
+    <t>Gold 3A Shrouded Square Pins 2.54mm 32P 6mm -55℃~+105℃ 2.54mm 双排 Black Brass 2x16P 2.54mm Push-Pull,P=2.54mm  Pin Headers ROHS</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>RES SMD 100K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>RESISTOR AEC -Q200</t>
+  </si>
+  <si>
+    <t>R2</t>
   </si>
   <si>
     <t>16V 100nF X5R ±20% 0402  Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
   </si>
   <si>
     <t>C9 C4 C11 C3 C8 C1 C12 C6 C7 C2 C10 C5</t>
-  </si>
-  <si>
-    <t>1.08V~5.5V 4 200Mbps 1.08V~5.5V TSSOP-14  Translators / Level Shifters ROHS</t>
-  </si>
-  <si>
-    <t>U2 U5 U4 U3 U6 U1</t>
-  </si>
-  <si>
-    <t>Gold 3A Shrouded Square Pins 2.54mm 32P 6mm -55℃~+105℃ 2.54mm 双排 Black Brass 2x16P 2.54mm Push-Pull,P=2.54mm  Pin Headers ROHS</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>RES SMD 100K OHM 1% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>RESISTOR AEC -Q200</t>
-  </si>
-  <si>
-    <t>R2</t>
   </si>
 </sst>
 </file>
@@ -524,47 +527,49 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2"/>
     </row>
